--- a/feb_24_algorithm2_overlap.xlsx
+++ b/feb_24_algorithm2_overlap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylandegrood/Documents/GitHub/researchBinning-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E489C9B-274B-5D4F-9AB2-B6F8AED9954B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50C6099-D67E-6F47-8DEA-181DED9AD114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{95F3EC5B-9902-4925-BEAC-EB97CA41F87E}"/>
   </bookViews>
@@ -16,58 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$10:$BN$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$11:$BN$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$1:$BN$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$20:$BN$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$21:$BN$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$22:$BN$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$23:$BN$23</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$24:$BN$24</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$25:$BN$25</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$BN$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$3:$BN$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$4:$BN$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$12:$BN$12</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$5:$BN$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$6:$BN$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$7:$BN$7</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$8:$BN$8</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$9:$BN$9</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$10:$BN$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$A$11:$BN$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$12:$BN$12</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$13:$BN$13</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$14:$BN$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$13:$BN$13</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$A$15:$BN$15</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$A$16:$BN$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$17:$BN$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$18:$BN$18</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$19:$BN$19</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$1:$BN$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$20:$BN$20</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$21:$BN$21</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$22:$BN$22</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$23:$BN$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$14:$BN$14</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$24:$BN$24</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$25:$BN$25</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$2:$BN$2</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$A$3:$BN$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$4:$BN$4</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$A$5:$BN$5</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$A$6:$BN$6</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$A$7:$BN$7</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$A$8:$BN$8</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$A$9:$BN$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$15:$BN$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$16:$BN$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$17:$BN$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$18:$BN$18</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$19:$BN$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4454,2409 +4402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$BN$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>1.0638802435982899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2005363888384899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.55541123816228</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.61615378006458</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.62780518134812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6522940158068999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7223181144941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.73002382553637</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.82216862133188</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9402403379622599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9657802561269899</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9731897303497401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9793687791108201</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0189554848904301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0287673946887099</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2287844422382901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.24890645810224</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2598839062834601</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.2821822495311102</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.2972190248909401</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.5121191542764199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.4250423675772304</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.4582476034616603</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.5143612719541597</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.5587633479987399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.7035054910308496</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.7260273303685096</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8308383335054197</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.8367221576079897</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9056311242012001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9192905630363297</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.9260437786906097</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.9592530472212504</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0330244353165297</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0594781766250101</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0611707947439903</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.08487744972662</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.1194712511117402</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.1806138963131696</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.39955355122048</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.4421163034509501</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.6319168747849799</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.6330408978681099</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.6621801062315003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.6680688756676298</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.8295359298232796</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.8914942231272898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.9059016274514704</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.96747725606674</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.9788825042743596</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.0329793002605392</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.0719397471194299</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.1204405872141905</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2088857417537309</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.2205467838679596</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.2355842929548206</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.2970963007187795</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.3621620330611304</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.3627434799966203</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.6852879213543908</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.7412511895325409</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.8231218718415292</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.6266406043828801</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.1112571601272099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$BN$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>1.14460851070515</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2092890907127201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.55869980348302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.64132765933272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6418124799725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.65310312800857</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7350652970690901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.73917555782817</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8421967687252401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.94088193959988</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9815691076978901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0900757319182599</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1423710830991198</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0422373033946601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2501552660925102</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5491680076148899</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9672480547168099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2737155192599801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4168027594483998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6786907186798397</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.3918461484075699</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.56302547347941</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.7808543038014504</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.63166743732768</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.5921444662207804</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.73235698788916</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.7758608970203298</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8915378552507702</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.8947779905265598</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9545474419982298</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9273428588045096</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.01997576180145</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.9602371128017602</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.1386283351341397</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.2164007687928198</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0801013785689202</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.4783674306941297</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.63896109897349</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.2179956880811096</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.9298513109377202</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.6827248146332296</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.66714686661141</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.8576333265995704</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.7995109048162004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.9868868191097597</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.9745935424503296</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.0358810883647198</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.9417547846615397</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.0149949675941503</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.1058250460929493</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.1061580053375906</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.0759543164817895</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.2079117269354498</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2337690387545699</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.2823364614912993</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.2474297857993104</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.3256363348322999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.3642648909815502</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.7028017173752996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.7050418162877605</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.7517716779053192</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.8269291912160899</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.79507343087649</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.1522502465068301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$BN$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>1.1517716996332501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.22054998016351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5651907780691501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.69910609689868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.64403584473571</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.65675240758751</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8113034283099601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7411494938580201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.87810216814235</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.94929716069952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0339769861751802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2590802265326202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4337407398311801</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4813305996638499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.2885003197554799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5911292227296103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7177751244258701</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2148726769814804</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6949168632756697</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7497256293714996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4688496406459102</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.7675734811894097</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8351114413569301</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.7223505121012304</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6612904920129798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.7446836351810102</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.8195403358076199</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.91686348630203</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9026226318014396</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9985607175486697</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0009455354883396</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.05321444334822</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0491225263099997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.1454387354484803</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.4280660180553797</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.1094699898364198</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.5735204114699499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.6426619108094904</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.3284833537063996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.6447803503272302</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.8249840576219798</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.9359748994491897</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.92284620538494</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.7445074741379498</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.9881539781452204</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.9867928704962496</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.0917233315074704</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.1528196921799694</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.0645155521279701</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.1661061976372</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.1814882576718304</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.1809408577508105</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.2137758840253401</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2372203455615107</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.3449041073593104</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.2766859454044202</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.3783565838419403</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.37518891172118</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.74923715732392</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.7158153267122405</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.7768204984718299</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.8802161054676105</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.94222454056455</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.2765169399607399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$BN$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>1.15824313290976</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.23592976332246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5707024119709501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.71823945602723</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6583905503496501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.86773120414674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7601460857851701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.88711721592394</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0404168554978699</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.20914393589252</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6229034015884496</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.9313873992714896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0627521305008303</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0540813627752303</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.1523293121207701</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.5820507776654704</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8357408123028298</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.4077225898999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.8324570034052696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.9308591353895102</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.0183277683914103</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.0955440145612503</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.1917859125313495</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.1106368718888096</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.1877011666932304</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2382577002089992</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.3580769543847193</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.3855613867441896</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.8216099512805197</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.8075049328345898</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.10928720322425</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.9570931960359901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$BN$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>1.1972276182403301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2493091206712399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.59446715146271</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8720677989091401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.66216384808926</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8762686816968499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7801342568701499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9002586222318401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2644601729376301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.9365410844023296</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0810658235996504</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.15988924661659</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.58779219200804</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.6095540704792901</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.0221983200635893</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.1189974693106102</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.19970250871385</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.2029487439636295</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2709429371424505</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4000941220037593</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.0911801553208398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$6:$BN$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.2650404529147901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6017218342738999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8914100079687399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6951390958600701</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1428630001770799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.78658766278736</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.90329345473005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.9502092548514796</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.1061413059791496</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.2972054755882203</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.1291383502659702</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.2359591149706404</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4056226322394298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$7:$BN$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.29911588167629</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.91618078184376</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6992343372758401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7924907982023399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.91953481250307</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.1737679133756398</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.3027756791193097</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.1725373309473195</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.2606774483969403</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4105666239327093</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$8:$BN$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.30193582205516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.70369495574122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8178756307561701</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.2139575203946</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.3224859711926999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.3065875977325998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4177180158463294</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$9:$BN$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.32113554171097</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7168405424887501</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.2253948288773397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.3580925276295197</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4241557567623495</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$10:$BN$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.33908384081177</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.3496479144866704</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4443016967332092</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$11:$BN$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.35204372118038</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4645530815589094</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$12:$BN$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.3849130449685001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.4876825341745796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$BN$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.41914619970764</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.5090284001169891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$14:$BN$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.46727458476687</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.5287174349804005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$15:$BN$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.51394052490335</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.5330797808290892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$16:$BN$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.53324787787422</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.55063924265386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$17:$BN$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="1">
-                  <c:v>1.5522426200513699</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.5523410787275598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$18:$BN$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="56">
-                  <c:v>8.5765302200457398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$19:$BN$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="56">
-                  <c:v>8.6374235253970202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$20:$BN$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="56">
-                  <c:v>8.65152271361106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$21:$BN$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$22:$BN$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$23:$BN$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="23"/>
-          <c:order val="23"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$24:$BN$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$25:$BN$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-1660-2444-AE8B-286CB0A13642}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1918034560"/>
-        <c:axId val="1918521760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1918034560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1918521760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1918521760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1918034560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7399,523 +4945,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53281</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>126705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7935,42 +4978,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7AEE8F-8E68-1040-9BF4-7417EB81AA18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8290,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC894E1-FC43-487D-9355-5F779EE402B3}">
   <dimension ref="A1:BL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
